--- a/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_EQ组.xlsx
+++ b/VersionRecords/Version 5.2.11 20170214/版本Bug和特性计划及评审表v5.2.11_EQ组.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21690" windowHeight="10815"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21690" windowHeight="10815" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="01 版本5.2.11 新特性|Fix Bug" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="110">
   <si>
     <t>No</t>
   </si>
@@ -367,6 +367,16 @@
   </si>
   <si>
     <t>renterpc</t>
+  </si>
+  <si>
+    <t>测试环境</t>
+    <phoneticPr fontId="22" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sysconfig.ELASTIC_DEFAULT_CITY_ID=289
+sysconfig.ELASTIC_SEARCHROOM_BRAND_TYPE=brand
+</t>
+    <phoneticPr fontId="22" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1008,6 +1018,12 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="10" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="6" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1034,12 +1050,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="10" xfId="13" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="5" fillId="6" borderId="10" xfId="13" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="14">
@@ -1417,7 +1427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X165"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
@@ -1534,7 +1544,7 @@
       <c r="E2" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="93" t="s">
+      <c r="F2" s="84" t="s">
         <v>106</v>
       </c>
       <c r="G2" s="60" t="s">
@@ -1559,13 +1569,13 @@
       <c r="N2" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="O2" s="93" t="s">
+      <c r="O2" s="84" t="s">
         <v>100</v>
       </c>
       <c r="P2" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="Q2" s="94">
+      <c r="Q2" s="85">
         <v>42781</v>
       </c>
       <c r="R2" s="69" t="s">
@@ -1596,7 +1606,7 @@
       <c r="E3" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="F3" s="93" t="s">
+      <c r="F3" s="84" t="s">
         <v>107</v>
       </c>
       <c r="G3" s="60" t="s">
@@ -1621,13 +1631,13 @@
       <c r="N3" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="O3" s="93" t="s">
+      <c r="O3" s="84" t="s">
         <v>104</v>
       </c>
       <c r="P3" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="Q3" s="94">
+      <c r="Q3" s="85">
         <v>42781</v>
       </c>
       <c r="R3" s="69"/>
@@ -1653,41 +1663,41 @@
       <c r="D4" s="59" t="s">
         <v>96</v>
       </c>
-      <c r="E4" s="93" t="s">
+      <c r="E4" s="84" t="s">
         <v>97</v>
       </c>
-      <c r="F4" s="93" t="s">
+      <c r="F4" s="84" t="s">
         <v>98</v>
       </c>
-      <c r="G4" s="93" t="s">
+      <c r="G4" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="94">
+      <c r="H4" s="85">
         <v>42781</v>
       </c>
-      <c r="I4" s="93" t="s">
+      <c r="I4" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="J4" s="94">
+      <c r="J4" s="85">
         <v>42781</v>
       </c>
-      <c r="K4" s="93"/>
+      <c r="K4" s="84"/>
       <c r="L4" s="69" t="s">
         <v>99</v>
       </c>
-      <c r="M4" s="93" t="s">
+      <c r="M4" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="N4" s="93" t="s">
+      <c r="N4" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="O4" s="93" t="s">
+      <c r="O4" s="84" t="s">
         <v>100</v>
       </c>
       <c r="P4" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="Q4" s="94">
+      <c r="Q4" s="85">
         <v>42781</v>
       </c>
       <c r="R4" s="69" t="s">
@@ -1715,41 +1725,41 @@
       <c r="D5" s="59" t="s">
         <v>105</v>
       </c>
-      <c r="E5" s="93" t="s">
+      <c r="E5" s="84" t="s">
         <v>26</v>
       </c>
       <c r="F5" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="G5" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="H5" s="94">
+      <c r="H5" s="85">
         <v>42781</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="I5" s="84" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="94">
+      <c r="J5" s="85">
         <v>42781</v>
       </c>
-      <c r="K5" s="93"/>
+      <c r="K5" s="84"/>
       <c r="L5" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="M5" s="93" t="s">
+      <c r="M5" s="84" t="s">
         <v>29</v>
       </c>
-      <c r="N5" s="93" t="s">
+      <c r="N5" s="84" t="s">
         <v>30</v>
       </c>
-      <c r="O5" s="93" t="s">
+      <c r="O5" s="84" t="s">
         <v>104</v>
       </c>
       <c r="P5" s="69" t="s">
         <v>101</v>
       </c>
-      <c r="Q5" s="94">
+      <c r="Q5" s="85">
         <v>42781</v>
       </c>
       <c r="R5" s="69" t="s">
@@ -5840,19 +5850,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="20.25" x14ac:dyDescent="0.15">
-      <c r="A1" s="84" t="s">
+      <c r="A1" s="86" t="s">
         <v>51</v>
       </c>
-      <c r="B1" s="85"/>
-      <c r="C1" s="85"/>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="85"/>
-      <c r="G1" s="85"/>
-      <c r="H1" s="85"/>
-      <c r="I1" s="85"/>
-      <c r="J1" s="85"/>
-      <c r="K1" s="85"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
     </row>
     <row r="2" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="22" t="s">
@@ -5890,8 +5900,8 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="86"/>
-      <c r="B3" s="86"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="88"/>
       <c r="C3" s="24"/>
       <c r="D3" s="25"/>
       <c r="E3" s="25"/>
@@ -5903,8 +5913,8 @@
       <c r="K3" s="32"/>
     </row>
     <row r="4" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="87"/>
-      <c r="B4" s="88"/>
+      <c r="A4" s="89"/>
+      <c r="B4" s="90"/>
       <c r="C4" s="24"/>
       <c r="D4" s="25"/>
       <c r="E4" s="25"/>
@@ -5916,8 +5926,8 @@
       <c r="K4" s="32"/>
     </row>
     <row r="5" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
+      <c r="A5" s="88"/>
+      <c r="B5" s="88"/>
       <c r="C5" s="24"/>
       <c r="D5" s="25"/>
       <c r="E5" s="25"/>
@@ -5929,8 +5939,8 @@
       <c r="K5" s="32"/>
     </row>
     <row r="6" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="88"/>
-      <c r="B6" s="88"/>
+      <c r="A6" s="90"/>
+      <c r="B6" s="90"/>
       <c r="C6" s="24"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
@@ -5942,8 +5952,8 @@
       <c r="K6" s="32"/>
     </row>
     <row r="7" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
+      <c r="A7" s="90"/>
+      <c r="B7" s="90"/>
       <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
@@ -5955,8 +5965,8 @@
       <c r="K7" s="32"/>
     </row>
     <row r="8" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="88"/>
-      <c r="B8" s="88"/>
+      <c r="A8" s="90"/>
+      <c r="B8" s="90"/>
       <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
@@ -5968,8 +5978,8 @@
       <c r="K8" s="32"/>
     </row>
     <row r="9" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="88"/>
-      <c r="B9" s="88"/>
+      <c r="A9" s="90"/>
+      <c r="B9" s="90"/>
       <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
@@ -5981,8 +5991,8 @@
       <c r="K9" s="32"/>
     </row>
     <row r="10" spans="1:11" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A10" s="87"/>
-      <c r="B10" s="87"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="89"/>
       <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
@@ -6024,7 +6034,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6043,36 +6053,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
@@ -6139,7 +6149,7 @@
         <v>76</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>77</v>
+        <v>108</v>
       </c>
       <c r="J4" s="11" t="s">
         <v>33</v>
@@ -6176,7 +6186,7 @@
         <v>76</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="J5" s="11" t="s">
         <v>33</v>
@@ -6367,7 +6377,7 @@
   <dimension ref="A1:M15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6386,36 +6396,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
@@ -6558,7 +6568,7 @@
         <v>76</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>33</v>
@@ -6730,8 +6740,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G36" sqref="G36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6750,36 +6760,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
@@ -6840,7 +6850,7 @@
         <v>80</v>
       </c>
       <c r="G4" s="12" t="s">
-        <v>83</v>
+        <v>109</v>
       </c>
       <c r="H4" s="11" t="s">
         <v>84</v>
@@ -7095,7 +7105,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7116,36 +7126,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A1" s="89" t="s">
+      <c r="A1" s="91" t="s">
         <v>62</v>
       </c>
-      <c r="B1" s="89"/>
-      <c r="C1" s="89"/>
-      <c r="D1" s="89"/>
-      <c r="E1" s="89"/>
-      <c r="F1" s="89"/>
-      <c r="G1" s="89"/>
-      <c r="H1" s="89"/>
-      <c r="I1" s="89"/>
-      <c r="J1" s="89"/>
-      <c r="K1" s="89"/>
-      <c r="L1" s="89"/>
-      <c r="M1" s="90"/>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
+      <c r="J1" s="91"/>
+      <c r="K1" s="91"/>
+      <c r="L1" s="91"/>
+      <c r="M1" s="92"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.15">
-      <c r="A2" s="91"/>
-      <c r="B2" s="91"/>
-      <c r="C2" s="91"/>
-      <c r="D2" s="91"/>
-      <c r="E2" s="91"/>
-      <c r="F2" s="91"/>
-      <c r="G2" s="91"/>
-      <c r="H2" s="91"/>
-      <c r="I2" s="91"/>
-      <c r="J2" s="91"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="91"/>
-      <c r="M2" s="92"/>
+      <c r="A2" s="93"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="93"/>
+      <c r="H2" s="93"/>
+      <c r="I2" s="93"/>
+      <c r="J2" s="93"/>
+      <c r="K2" s="93"/>
+      <c r="L2" s="93"/>
+      <c r="M2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="9" t="s">
@@ -7288,7 +7298,7 @@
         <v>76</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="J6" s="11" t="s">
         <v>33</v>
